--- a/data/trans_orig/P36B17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B17-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>46241</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35638</v>
+        <v>34977</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59040</v>
+        <v>58907</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1450265115988705</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1117718189717929</v>
+        <v>0.109697687902915</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1851671670208518</v>
+        <v>0.1847516320110661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -762,19 +762,19 @@
         <v>44209</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35807</v>
+        <v>36017</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54144</v>
+        <v>54341</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1398755951760925</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1132921773438655</v>
+        <v>0.1139565275187666</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1713086826827813</v>
+        <v>0.1719305902402794</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>137</v>
@@ -783,19 +783,19 @@
         <v>90450</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76244</v>
+        <v>76899</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105582</v>
+        <v>107576</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1424623491067969</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1200864599932538</v>
+        <v>0.1211182402529904</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1662953514898362</v>
+        <v>0.1694367396953994</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>70367</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56592</v>
+        <v>55820</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>87314</v>
+        <v>87513</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2206942533283208</v>
+        <v>0.2206942533283209</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1774897428833579</v>
+        <v>0.1750692729045566</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2738445883216964</v>
+        <v>0.2744681493073814</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>149</v>
@@ -833,19 +833,19 @@
         <v>85446</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73458</v>
+        <v>73769</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>99177</v>
+        <v>98838</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2703472717627533</v>
+        <v>0.2703472717627532</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2324175648666858</v>
+        <v>0.2334004924784724</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3137894952632794</v>
+        <v>0.3127183064841038</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>224</v>
@@ -854,19 +854,19 @@
         <v>155813</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>135727</v>
+        <v>136325</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>176315</v>
+        <v>178700</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2454118757934793</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2137748906463624</v>
+        <v>0.2147163277970491</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2777024498924713</v>
+        <v>0.2814594161482298</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>200290</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>182285</v>
+        <v>182694</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>217447</v>
+        <v>217899</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.628173446759986</v>
+        <v>0.6281734467599861</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5717053954320662</v>
+        <v>0.5729880816994386</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6819839193379414</v>
+        <v>0.6834006375840032</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>298</v>
@@ -904,19 +904,19 @@
         <v>181940</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>168668</v>
+        <v>167273</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>196957</v>
+        <v>195550</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5756496054894805</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.53365691431658</v>
+        <v>0.5292417156728849</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6231624237919932</v>
+        <v>0.6187095644109678</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>500</v>
@@ -925,19 +925,19 @@
         <v>382230</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>359639</v>
+        <v>358242</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>403344</v>
+        <v>405544</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.6020267084572857</v>
+        <v>0.6020267084572856</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5664443918002054</v>
+        <v>0.5642434352378627</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6352820308808371</v>
+        <v>0.6387463285616611</v>
       </c>
     </row>
     <row r="7">
@@ -957,16 +957,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6454</v>
+        <v>7193</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.006105788312822547</v>
+        <v>0.006105788312822548</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02024275748509121</v>
+        <v>0.0225584058215636</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -975,19 +975,19 @@
         <v>3322</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7863</v>
+        <v>7566</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01051061088214032</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003527690783998561</v>
+        <v>0.003495710226564131</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02487732074386267</v>
+        <v>0.02393961123779247</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -996,19 +996,19 @@
         <v>5269</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2244</v>
+        <v>2357</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11003</v>
+        <v>11302</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008298540027165546</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003534819877188042</v>
+        <v>0.003712254252762447</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01733046796862958</v>
+        <v>0.01780114135676493</v>
       </c>
     </row>
     <row r="8">
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5765</v>
+        <v>6778</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.003616916689533377</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01823959612002846</v>
+        <v>0.02144525180876123</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5767</v>
+        <v>5728</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.001800526615272606</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.009083390126148262</v>
+        <v>0.009022524681374178</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>85999</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65190</v>
+        <v>69032</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106948</v>
+        <v>108679</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1620635198180309</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.122850423379322</v>
+        <v>0.1300899324928594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2015432491092621</v>
+        <v>0.2048042935800362</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>132</v>
@@ -1184,19 +1184,19 @@
         <v>92817</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78020</v>
+        <v>78528</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>109305</v>
+        <v>108027</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.169841164394666</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1427642917701245</v>
+        <v>0.1436941511259139</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2000118967061392</v>
+        <v>0.1976725867230876</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>202</v>
@@ -1205,19 +1205,19 @@
         <v>178816</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>156857</v>
+        <v>155036</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>208230</v>
+        <v>204296</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1660095560357284</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1456231636257223</v>
+        <v>0.1439328674461372</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1933176982923735</v>
+        <v>0.1896648859391978</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>173815</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>147176</v>
+        <v>147647</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>202567</v>
+        <v>201758</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3275523753312566</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2773511678246354</v>
+        <v>0.2782392908817402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3817353086097677</v>
+        <v>0.3802120441462868</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>276</v>
@@ -1255,19 +1255,19 @@
         <v>204086</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>184537</v>
+        <v>184805</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>224091</v>
+        <v>224493</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3734455324216476</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.337674480081992</v>
+        <v>0.3381651450838948</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.41005119887845</v>
+        <v>0.4107885456905241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>408</v>
@@ -1276,19 +1276,19 @@
         <v>377900</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>347396</v>
+        <v>345051</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>412537</v>
+        <v>413226</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3508365532386906</v>
+        <v>0.3508365532386907</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3225167608635494</v>
+        <v>0.3203396503973911</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3829925038772436</v>
+        <v>0.383631995928524</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>227748</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>199979</v>
+        <v>200170</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>259104</v>
+        <v>258619</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4291899423675083</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3768584770729975</v>
+        <v>0.3772188914951153</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4882790572917649</v>
+        <v>0.4873656097353186</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>262</v>
@@ -1326,19 +1326,19 @@
         <v>213971</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>193030</v>
+        <v>192323</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>235334</v>
+        <v>235821</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3915342145254666</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3532147919050758</v>
+        <v>0.3519212265749136</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4306247459888791</v>
+        <v>0.4315159937705855</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>414</v>
@@ -1347,19 +1347,19 @@
         <v>441719</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>407176</v>
+        <v>404677</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>478384</v>
+        <v>477520</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4100850752828337</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.378015356441623</v>
+        <v>0.37569557474204</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.444123604770903</v>
+        <v>0.4433216208301752</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>43085</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27788</v>
+        <v>29153</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62546</v>
+        <v>64925</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08119416248320423</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05236570722533605</v>
+        <v>0.05493824551475987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1178679336451143</v>
+        <v>0.1223497082841624</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1397,19 +1397,19 @@
         <v>32854</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24498</v>
+        <v>23947</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44413</v>
+        <v>43440</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06011691749356091</v>
+        <v>0.06011691749356089</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04482825632248563</v>
+        <v>0.04381980767287747</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08126905962367326</v>
+        <v>0.07948811851826397</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -1418,19 +1418,19 @@
         <v>75939</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59189</v>
+        <v>58860</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>97911</v>
+        <v>97688</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07050049150365457</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05494978277739979</v>
+        <v>0.05464447212457314</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0908991328241263</v>
+        <v>0.09069195527021359</v>
       </c>
     </row>
     <row r="14">
@@ -1460,19 +1460,19 @@
         <v>2766</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>774</v>
+        <v>696</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6951</v>
+        <v>6942</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005062171164658878</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001417135749492875</v>
+        <v>0.001273899789636883</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01271860724743658</v>
+        <v>0.01270200710113228</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1481,19 +1481,19 @@
         <v>2766</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>689</v>
+        <v>753</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7037</v>
+        <v>6352</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002568323939092846</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0006397370696827594</v>
+        <v>0.0006992162614893163</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006533120005265092</v>
+        <v>0.005896680317427834</v>
       </c>
     </row>
     <row r="15">
@@ -1585,19 +1585,19 @@
         <v>106602</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>92180</v>
+        <v>90871</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121041</v>
+        <v>123007</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3402946556749505</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2942567033079208</v>
+        <v>0.290076807860333</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3863855046446668</v>
+        <v>0.3926618116790372</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>237</v>
@@ -1606,19 +1606,19 @@
         <v>146557</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132152</v>
+        <v>131724</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>161749</v>
+        <v>163988</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4172927827966639</v>
+        <v>0.417292782796664</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3762784501496373</v>
+        <v>0.3750587320428727</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4605504152545414</v>
+        <v>0.4669235119548761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>376</v>
@@ -1627,19 +1627,19 @@
         <v>253160</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>229163</v>
+        <v>232246</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>275257</v>
+        <v>276200</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3809921478488161</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3448787505767553</v>
+        <v>0.3495175224750012</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4142474495803324</v>
+        <v>0.4156666566678286</v>
       </c>
     </row>
     <row r="17">
@@ -1656,19 +1656,19 @@
         <v>85430</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70630</v>
+        <v>71376</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>99689</v>
+        <v>101889</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2727086738561039</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2254637428204645</v>
+        <v>0.2278463161443347</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3182269407765033</v>
+        <v>0.3252500608556613</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>143</v>
@@ -1677,19 +1677,19 @@
         <v>99379</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>86237</v>
+        <v>86221</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>115638</v>
+        <v>115342</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.282962585299361</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.245544013006009</v>
+        <v>0.2454965760997408</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3292582445082577</v>
+        <v>0.3284130200638565</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>239</v>
@@ -1698,19 +1698,19 @@
         <v>184809</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>161991</v>
+        <v>164396</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>205588</v>
+        <v>207506</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2781283963391432</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2437885471195029</v>
+        <v>0.2474070215396754</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3093995808303469</v>
+        <v>0.3122849130517112</v>
       </c>
     </row>
     <row r="18">
@@ -1727,19 +1727,19 @@
         <v>93723</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>77797</v>
+        <v>79178</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>107714</v>
+        <v>110597</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2991804435895409</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2483438518018575</v>
+        <v>0.2527493953066814</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3438422700565528</v>
+        <v>0.3530458110452173</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>112</v>
@@ -1748,19 +1748,19 @@
         <v>81006</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>69111</v>
+        <v>68075</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>95050</v>
+        <v>95411</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2306483616507321</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1967789053948457</v>
+        <v>0.193829669685627</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.270636797150306</v>
+        <v>0.2716651733851614</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>208</v>
@@ -1769,19 +1769,19 @@
         <v>174729</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>153773</v>
+        <v>154149</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>196766</v>
+        <v>196146</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.262957694119874</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2314209595612522</v>
+        <v>0.2319868861783058</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2961228442204006</v>
+        <v>0.2951896361652585</v>
       </c>
     </row>
     <row r="19">
@@ -1798,19 +1798,19 @@
         <v>25087</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16430</v>
+        <v>16075</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36653</v>
+        <v>37085</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08008300425757112</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05244756725290427</v>
+        <v>0.05131519964003953</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1170038685835893</v>
+        <v>0.1183823346899731</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -1819,19 +1819,19 @@
         <v>19992</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13100</v>
+        <v>13664</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29021</v>
+        <v>28526</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05692331281055909</v>
+        <v>0.0569233128105591</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03729931481656314</v>
+        <v>0.03890597277858835</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08263264644289069</v>
+        <v>0.08122135981485322</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>51</v>
@@ -1840,19 +1840,19 @@
         <v>45079</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32740</v>
+        <v>33369</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58958</v>
+        <v>59641</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06784190961478831</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04927257323273402</v>
+        <v>0.05021796078632083</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08872813140848812</v>
+        <v>0.08975661976279174</v>
       </c>
     </row>
     <row r="20">
@@ -1869,19 +1869,19 @@
         <v>2423</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7443</v>
+        <v>7730</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007733222621833635</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001955516759426924</v>
+        <v>0.001950097704522174</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02375902776667859</v>
+        <v>0.02467629174708599</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1890,19 +1890,19 @@
         <v>4275</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1844</v>
+        <v>1741</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8778</v>
+        <v>8058</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0121729574426839</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005250589724615118</v>
+        <v>0.004958343885146518</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02499456154902506</v>
+        <v>0.02294382715272473</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1911,19 +1911,19 @@
         <v>6698</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3317</v>
+        <v>3514</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12359</v>
+        <v>11604</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01007985207737839</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004992283426069935</v>
+        <v>0.005288801620688159</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01859905910853536</v>
+        <v>0.01746383800686031</v>
       </c>
     </row>
     <row r="21">
@@ -2015,19 +2015,19 @@
         <v>81333</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64072</v>
+        <v>64233</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101012</v>
+        <v>103204</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2184322217884416</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1720760984746452</v>
+        <v>0.1725087326042008</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2712850289924731</v>
+        <v>0.2771703526867305</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>185</v>
@@ -2036,19 +2036,19 @@
         <v>104310</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>90658</v>
+        <v>88843</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>122124</v>
+        <v>121063</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2494362114228014</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2167896363892164</v>
+        <v>0.2124501159518047</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2920335354631065</v>
+        <v>0.289496366212816</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>265</v>
@@ -2057,19 +2057,19 @@
         <v>185643</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>159407</v>
+        <v>160551</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>211116</v>
+        <v>208996</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2348330615520484</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2016444482014374</v>
+        <v>0.2030924028580805</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2670554310752757</v>
+        <v>0.264374121915254</v>
       </c>
     </row>
     <row r="23">
@@ -2086,19 +2086,19 @@
         <v>133356</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>109480</v>
+        <v>111945</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>157195</v>
+        <v>158593</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3581486413473491</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2940262028207785</v>
+        <v>0.300645371061587</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4221710366854864</v>
+        <v>0.4259266702603483</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>224</v>
@@ -2107,19 +2107,19 @@
         <v>159741</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>139523</v>
+        <v>140219</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>177978</v>
+        <v>178899</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3819868340456917</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.333640458273059</v>
+        <v>0.3353031742015093</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4255967974984617</v>
+        <v>0.4277995303962983</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>335</v>
@@ -2128,19 +2128,19 @@
         <v>293097</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>263981</v>
+        <v>264007</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>321103</v>
+        <v>325345</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3707588371095814</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3339279429091715</v>
+        <v>0.3339604713816844</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4061857700971122</v>
+        <v>0.4115509165594791</v>
       </c>
     </row>
     <row r="24">
@@ -2157,19 +2157,19 @@
         <v>136724</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>111858</v>
+        <v>111245</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>160290</v>
+        <v>163464</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3671954311510516</v>
+        <v>0.3671954311510517</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3004119661782168</v>
+        <v>0.2987659196527594</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4304849039450233</v>
+        <v>0.4390093942836526</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>163</v>
@@ -2178,19 +2178,19 @@
         <v>132895</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>115216</v>
+        <v>116184</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>152616</v>
+        <v>152590</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3177910127353689</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.275514252032917</v>
+        <v>0.2778297275311786</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3649478044784273</v>
+        <v>0.3648867428892558</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>250</v>
@@ -2199,19 +2199,19 @@
         <v>269620</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>240090</v>
+        <v>238289</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>300133</v>
+        <v>299733</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3410609252501781</v>
+        <v>0.3410609252501779</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3037068529361726</v>
+        <v>0.3014286177201629</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3796589957912153</v>
+        <v>0.3791532499550263</v>
       </c>
     </row>
     <row r="25">
@@ -2228,19 +2228,19 @@
         <v>18774</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9032</v>
+        <v>7877</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46251</v>
+        <v>41023</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05042127731946072</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02425766132657942</v>
+        <v>0.02115376331782766</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1242141277820583</v>
+        <v>0.1101740289527116</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -2249,19 +2249,19 @@
         <v>17963</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10506</v>
+        <v>10953</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30620</v>
+        <v>30085</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04295358569456834</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02512219987254492</v>
+        <v>0.02619146998871651</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07322127981460304</v>
+        <v>0.07194171683999306</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>29</v>
@@ -2270,19 +2270,19 @@
         <v>36737</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23072</v>
+        <v>23507</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60747</v>
+        <v>64393</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04647093366407014</v>
+        <v>0.04647093366407013</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02918497252529994</v>
+        <v>0.0297356104314869</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07684254319985638</v>
+        <v>0.08145477004609127</v>
       </c>
     </row>
     <row r="26">
@@ -2302,16 +2302,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8974</v>
+        <v>8023</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.005802428393696983</v>
+        <v>0.005802428393696984</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02409978618075684</v>
+        <v>0.02154647246199802</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2320,19 +2320,19 @@
         <v>3275</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1101</v>
+        <v>1218</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8507</v>
+        <v>8588</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007832356101569736</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002633291198672868</v>
+        <v>0.002911719296454529</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02034211983908825</v>
+        <v>0.02053702755933239</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2341,19 +2341,19 @@
         <v>5436</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2331</v>
+        <v>2112</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12618</v>
+        <v>11276</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.006876242424121978</v>
+        <v>0.006876242424121977</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00294859367687724</v>
+        <v>0.002672124363972408</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01596084624814683</v>
+        <v>0.01426433549674787</v>
       </c>
     </row>
     <row r="27">
@@ -2445,19 +2445,19 @@
         <v>54233</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>43629</v>
+        <v>43933</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>67372</v>
+        <v>67406</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2636944988115834</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2121367304595369</v>
+        <v>0.2136152260937864</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3275804657778614</v>
+        <v>0.3277471035446449</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>132</v>
@@ -2466,19 +2466,19 @@
         <v>59761</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>51253</v>
+        <v>50444</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70781</v>
+        <v>68814</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2634681715458347</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2259621305358821</v>
+        <v>0.2223947837527473</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3120534409327114</v>
+        <v>0.3033837774272677</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>204</v>
@@ -2487,19 +2487,19 @@
         <v>113993</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>100382</v>
+        <v>99083</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>129559</v>
+        <v>128831</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2635757988766994</v>
+        <v>0.2635757988766995</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2321027247170449</v>
+        <v>0.2290992859658413</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2995664884517269</v>
+        <v>0.2978832826133198</v>
       </c>
     </row>
     <row r="29">
@@ -2516,19 +2516,19 @@
         <v>125478</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>113303</v>
+        <v>112399</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>138581</v>
+        <v>137234</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6101100105433459</v>
+        <v>0.610110010543346</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5509124448320573</v>
+        <v>0.5465144202435307</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6738171454497962</v>
+        <v>0.6672702596118495</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>325</v>
@@ -2537,19 +2537,19 @@
         <v>149549</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>138241</v>
+        <v>139515</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>159099</v>
+        <v>160004</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.6593220050148203</v>
+        <v>0.6593220050148202</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6094644342294785</v>
+        <v>0.6150815999402426</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7014232116328679</v>
+        <v>0.7054154900826514</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>500</v>
@@ -2558,19 +2558,19 @@
         <v>275028</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>256041</v>
+        <v>257608</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>288492</v>
+        <v>290553</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6359198064596615</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5920187223994451</v>
+        <v>0.5956417376766785</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6670521965153927</v>
+        <v>0.6718177393764256</v>
       </c>
     </row>
     <row r="30">
@@ -2587,19 +2587,19 @@
         <v>21830</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14204</v>
+        <v>14107</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31408</v>
+        <v>30507</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1061429496886781</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06906364667749408</v>
+        <v>0.06859071819049828</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1527149996105494</v>
+        <v>0.1483349981130838</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>28</v>
@@ -2608,19 +2608,19 @@
         <v>14705</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9631</v>
+        <v>9613</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22051</v>
+        <v>21590</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.06483155949009682</v>
+        <v>0.06483155949009681</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04245950269662106</v>
+        <v>0.0423819203541336</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09721640575825621</v>
+        <v>0.09518265360421425</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>55</v>
@@ -2629,19 +2629,19 @@
         <v>36535</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>27619</v>
+        <v>26317</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>49199</v>
+        <v>47442</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08447671645639751</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06386182162680007</v>
+        <v>0.0608507388981653</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1137583500275221</v>
+        <v>0.1096954751671359</v>
       </c>
     </row>
     <row r="31">
@@ -2658,19 +2658,19 @@
         <v>4124</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1364</v>
+        <v>1339</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9466</v>
+        <v>10023</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.02005254095639254</v>
+        <v>0.02005254095639255</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.006633296961966901</v>
+        <v>0.006512202522921205</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04602507349345233</v>
+        <v>0.04873691339441862</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -2679,19 +2679,19 @@
         <v>2069</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>744</v>
+        <v>801</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4836</v>
+        <v>4650</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.009122924200964831</v>
+        <v>0.009122924200964827</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.003278481917967997</v>
+        <v>0.003529655812474664</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0213194411142663</v>
+        <v>0.02050075982898756</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -2700,19 +2700,19 @@
         <v>6193</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3008</v>
+        <v>2717</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>11762</v>
+        <v>12222</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01432037787438929</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006955457030437285</v>
+        <v>0.006282639890512102</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02719530243174403</v>
+        <v>0.02826075713670842</v>
       </c>
     </row>
     <row r="32">
@@ -2745,16 +2745,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4119</v>
+        <v>3360</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.003255339748283462</v>
+        <v>0.003255339748283461</v>
       </c>
       <c r="O32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01816051711940293</v>
+        <v>0.01481117264879261</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3782</v>
+        <v>3835</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.001707300332852155</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.008743796794443913</v>
+        <v>0.008867648802546297</v>
       </c>
     </row>
     <row r="33">
@@ -2867,19 +2867,19 @@
         <v>87549</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>74925</v>
+        <v>75123</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>100297</v>
+        <v>102433</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3234074038803734</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2767763989380547</v>
+        <v>0.2775059606475078</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3705014470672284</v>
+        <v>0.3783906949586531</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>232</v>
@@ -2888,19 +2888,19 @@
         <v>111023</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>99186</v>
+        <v>99060</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>123252</v>
+        <v>123993</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.4209402481985686</v>
+        <v>0.4209402481985684</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3760599179230606</v>
+        <v>0.3755819422826093</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4673077138909241</v>
+        <v>0.4701161909667134</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>381</v>
@@ -2909,19 +2909,19 @@
         <v>198572</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>180150</v>
+        <v>180691</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>217087</v>
+        <v>218827</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3715390648139269</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3370709142803716</v>
+        <v>0.3380827917004924</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4061823150763448</v>
+        <v>0.4094381522329218</v>
       </c>
     </row>
     <row r="35">
@@ -2938,19 +2938,19 @@
         <v>86870</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>73218</v>
+        <v>73125</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>100994</v>
+        <v>101682</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3209014000461908</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.270468770904352</v>
+        <v>0.2701268743293384</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3730734110262023</v>
+        <v>0.3756181209145221</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>151</v>
@@ -2959,19 +2959,19 @@
         <v>99505</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>86919</v>
+        <v>87226</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>112400</v>
+        <v>113772</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.3772704308769613</v>
+        <v>0.377270430876961</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3295508258842646</v>
+        <v>0.3307128103317117</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4261621396317424</v>
+        <v>0.4313614461986499</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>262</v>
@@ -2980,19 +2980,19 @@
         <v>186375</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>167125</v>
+        <v>166018</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>205726</v>
+        <v>206039</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.348719055709428</v>
+        <v>0.3487190557094279</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3127002858262468</v>
+        <v>0.3106297520397583</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3849252847043572</v>
+        <v>0.3855113925364734</v>
       </c>
     </row>
     <row r="36">
@@ -3009,19 +3009,19 @@
         <v>77477</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>63431</v>
+        <v>64593</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>90918</v>
+        <v>92216</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2862036736411958</v>
+        <v>0.2862036736411959</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2343169927032935</v>
+        <v>0.2386075660023547</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3358529803932347</v>
+        <v>0.3406483122227742</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>63</v>
@@ -3030,19 +3030,19 @@
         <v>43394</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>33970</v>
+        <v>32761</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>54838</v>
+        <v>54039</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1645264788449357</v>
+        <v>0.1645264788449356</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1287981032384792</v>
+        <v>0.1242137991784464</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2079153822699656</v>
+        <v>0.2048880605629751</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>150</v>
@@ -3051,19 +3051,19 @@
         <v>120871</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>104577</v>
+        <v>103159</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>139664</v>
+        <v>140036</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2261569732274051</v>
+        <v>0.2261569732274052</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1956690249605938</v>
+        <v>0.1930159230245593</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2613201969393595</v>
+        <v>0.262014919002737</v>
       </c>
     </row>
     <row r="37">
@@ -3080,19 +3080,19 @@
         <v>16707</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>10803</v>
+        <v>11178</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>25306</v>
+        <v>25246</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.06171737962119145</v>
+        <v>0.06171737962119146</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03990705334412035</v>
+        <v>0.04129288393130955</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09348228381131339</v>
+        <v>0.09326040690499839</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>13</v>
@@ -3101,19 +3101,19 @@
         <v>9311</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>4858</v>
+        <v>4714</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>15787</v>
+        <v>15637</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.03530103220151572</v>
+        <v>0.03530103220151569</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01841952281598653</v>
+        <v>0.01787392879792936</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05985471613142397</v>
+        <v>0.05928840674523995</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>34</v>
@@ -3122,19 +3122,19 @@
         <v>26018</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>18326</v>
+        <v>17691</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>36362</v>
+        <v>35581</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04868112823331319</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03428815019114621</v>
+        <v>0.03310145904033611</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06803467683504816</v>
+        <v>0.06657352223050909</v>
       </c>
     </row>
     <row r="38">
@@ -3151,19 +3151,19 @@
         <v>2103</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>6198</v>
+        <v>5711</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.007770142811048586</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.001945854049167724</v>
+        <v>0.001954684882663797</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02289664874924078</v>
+        <v>0.02109824533346338</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -3175,16 +3175,16 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3151</v>
+        <v>2542</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.001961809878018964</v>
+        <v>0.001961809878018963</v>
       </c>
       <c r="O38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01194859351533683</v>
+        <v>0.009636838750072967</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>4</v>
@@ -3193,19 +3193,19 @@
         <v>2621</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>734</v>
+        <v>763</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6375</v>
+        <v>7009</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.004903778015926737</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.001373927390325467</v>
+        <v>0.001426896565475493</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01192815294475007</v>
+        <v>0.0131149344189946</v>
       </c>
     </row>
     <row r="39">
@@ -3297,19 +3297,19 @@
         <v>285912</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>255333</v>
+        <v>257350</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>317247</v>
+        <v>316414</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3977390816003366</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.355199894304257</v>
+        <v>0.3580060326084805</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4413303002627932</v>
+        <v>0.4401718813215986</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>438</v>
@@ -3318,19 +3318,19 @@
         <v>325124</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>298761</v>
+        <v>300627</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>348590</v>
+        <v>352172</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4219752315322645</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3877593999992147</v>
+        <v>0.3901805865972913</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4524322479707765</v>
+        <v>0.4570810489115301</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>693</v>
@@ -3339,19 +3339,19 @@
         <v>611035</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>574446</v>
+        <v>569373</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>648698</v>
+        <v>649272</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.410277325151911</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3857091557410653</v>
+        <v>0.3823032633384202</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.435565854274133</v>
+        <v>0.4359512707898476</v>
       </c>
     </row>
     <row r="41">
@@ -3368,19 +3368,19 @@
         <v>232963</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>203925</v>
+        <v>201575</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>263143</v>
+        <v>259823</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3240813060128561</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2836850273918947</v>
+        <v>0.280416156727769</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.366064890734685</v>
+        <v>0.3614463742541221</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>303</v>
@@ -3389,19 +3389,19 @@
         <v>245152</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>224432</v>
+        <v>223048</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>272889</v>
+        <v>271754</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3181807208113578</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2912877595985674</v>
+        <v>0.2894914598659749</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3541806868748353</v>
+        <v>0.3527067664143981</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>498</v>
@@ -3410,19 +3410,19 @@
         <v>478115</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>441457</v>
+        <v>441256</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>522475</v>
+        <v>517358</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3210287182643483</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2964144708946038</v>
+        <v>0.296279773106864</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3508138512196063</v>
+        <v>0.347377806706027</v>
       </c>
     </row>
     <row r="42">
@@ -3439,19 +3439,19 @@
         <v>140553</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>116639</v>
+        <v>114378</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>169747</v>
+        <v>169299</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.1955272422337326</v>
+        <v>0.1955272422337327</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.162259573619629</v>
+        <v>0.1591149001433963</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2361391226426652</v>
+        <v>0.2355156182527125</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>174</v>
@@ -3460,19 +3460,19 @@
         <v>159447</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>137820</v>
+        <v>137300</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>183143</v>
+        <v>184216</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2069442157176068</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.178874633469501</v>
+        <v>0.1782000823862372</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2377001451833299</v>
+        <v>0.2390922118547399</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>281</v>
@@ -3481,19 +3481,19 @@
         <v>300000</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>264400</v>
+        <v>266448</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>335201</v>
+        <v>336968</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.2014336586639307</v>
+        <v>0.2014336586639306</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1775303683752069</v>
+        <v>0.1789054104744876</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2250694185203639</v>
+        <v>0.22625568251457</v>
       </c>
     </row>
     <row r="43">
@@ -3510,19 +3510,19 @@
         <v>46122</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>31562</v>
+        <v>30848</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>66403</v>
+        <v>64350</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.0641614418621182</v>
+        <v>0.06416144186211821</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04390689618137268</v>
+        <v>0.04291351609470635</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.09237426776310489</v>
+        <v>0.08951853230304092</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>32</v>
@@ -3531,19 +3531,19 @@
         <v>29322</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>20140</v>
+        <v>21064</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>41504</v>
+        <v>41818</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03805715031591358</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02613969574683677</v>
+        <v>0.02733928334921527</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05386736259984753</v>
+        <v>0.05427535132403102</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>64</v>
@@ -3552,19 +3552,19 @@
         <v>75444</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>57966</v>
+        <v>58030</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>99989</v>
+        <v>97732</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.05065674057635657</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03892098704180504</v>
+        <v>0.03896415336402195</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06713692214048041</v>
+        <v>0.06562174925629101</v>
       </c>
     </row>
     <row r="44">
@@ -3581,19 +3581,19 @@
         <v>13292</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>6492</v>
+        <v>6264</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>26505</v>
+        <v>24585</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01849092829095659</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.009031509527340987</v>
+        <v>0.008713687335061955</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03687242977425969</v>
+        <v>0.03420023586024844</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>11</v>
@@ -3602,19 +3602,19 @@
         <v>11436</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>5746</v>
+        <v>5829</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>22853</v>
+        <v>23217</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01484268162285717</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.007457674013371721</v>
+        <v>0.007565173184823864</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02966057018354999</v>
+        <v>0.03013306378916549</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>20</v>
@@ -3623,19 +3623,19 @@
         <v>24728</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>14847</v>
+        <v>15811</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>38777</v>
+        <v>40084</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.01660355734345348</v>
+        <v>0.01660355734345347</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.009969237466117224</v>
+        <v>0.01061615093748128</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02603669449428763</v>
+        <v>0.02691454830952941</v>
       </c>
     </row>
     <row r="45">
@@ -3727,19 +3727,19 @@
         <v>168222</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>145193</v>
+        <v>145813</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>193485</v>
+        <v>194355</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2107853050497113</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1819302173174513</v>
+        <v>0.1827071653321</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2424406427815554</v>
+        <v>0.2435311894957166</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>302</v>
@@ -3748,19 +3748,19 @@
         <v>216146</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>195721</v>
+        <v>196176</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>240438</v>
+        <v>238772</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2599996848876432</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2354303579131072</v>
+        <v>0.2359781013156901</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2892203485276114</v>
+        <v>0.2872165124296758</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>479</v>
@@ -3769,19 +3769,19 @@
         <v>384368</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>354080</v>
+        <v>352469</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>416406</v>
+        <v>416861</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2358947795338604</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2173065510470108</v>
+        <v>0.216318037087135</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.255557641634157</v>
+        <v>0.2558367875768426</v>
       </c>
     </row>
     <row r="47">
@@ -3798,19 +3798,19 @@
         <v>220873</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>196726</v>
+        <v>192360</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>249211</v>
+        <v>246837</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.276758675982804</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2465017139593285</v>
+        <v>0.2410305982884986</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3122658914918014</v>
+        <v>0.3092913696635219</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>369</v>
@@ -3819,19 +3819,19 @@
         <v>287803</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>262588</v>
+        <v>262407</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>311409</v>
+        <v>312620</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3461953559222982</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3158642117138738</v>
+        <v>0.3156468441181777</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3745908583002632</v>
+        <v>0.3760479150176365</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>592</v>
@@ -3840,19 +3840,19 @@
         <v>508676</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>467769</v>
+        <v>468960</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>543087</v>
+        <v>543900</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.3121856903827892</v>
+        <v>0.3121856903827891</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2870801513836673</v>
+        <v>0.2878107822074857</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.333303993594902</v>
+        <v>0.3338033338022168</v>
       </c>
     </row>
     <row r="48">
@@ -3869,19 +3869,19 @@
         <v>250045</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>222505</v>
+        <v>224478</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>276950</v>
+        <v>277731</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3133108955922952</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2788029798656586</v>
+        <v>0.2812759148482455</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3470237990501294</v>
+        <v>0.3480023919591809</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>292</v>
@@ -3890,19 +3890,19 @@
         <v>235050</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>213358</v>
+        <v>213320</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>260353</v>
+        <v>261186</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2827388975100035</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2566464514167029</v>
+        <v>0.2566000069221603</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3131759981192704</v>
+        <v>0.3141779373058272</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>524</v>
@@ -3911,19 +3911,19 @@
         <v>485094</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>447813</v>
+        <v>449284</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>522585</v>
+        <v>525102</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.2977128771207693</v>
+        <v>0.2977128771207692</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2748323865372142</v>
+        <v>0.275735625522425</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3207215309218213</v>
+        <v>0.3222663262960184</v>
       </c>
     </row>
     <row r="49">
@@ -3940,19 +3940,19 @@
         <v>90874</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>71419</v>
+        <v>72580</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>111804</v>
+        <v>112883</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.1138667342543259</v>
+        <v>0.1138667342543258</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.08948883424428616</v>
+        <v>0.09094403895641261</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1400928807757814</v>
+        <v>0.1414441814166533</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>70</v>
@@ -3961,19 +3961,19 @@
         <v>65567</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>51426</v>
+        <v>50842</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>84089</v>
+        <v>81585</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.07887008023267751</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.06185949438923335</v>
+        <v>0.06115780137604006</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1011502735566498</v>
+        <v>0.09813744153042391</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>146</v>
@@ -3982,19 +3982,19 @@
         <v>156441</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>134360</v>
+        <v>130909</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>183910</v>
+        <v>183989</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.09601122954043979</v>
+        <v>0.09601122954043982</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.08245981677709348</v>
+        <v>0.08034173506961875</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1128692681065111</v>
+        <v>0.1129178831956212</v>
       </c>
     </row>
     <row r="50">
@@ -4011,19 +4011,19 @@
         <v>68058</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>51297</v>
+        <v>52588</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>88402</v>
+        <v>87442</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.08527838912086351</v>
+        <v>0.0852783891208635</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.06427604698535037</v>
+        <v>0.06589326887950248</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1107691727420203</v>
+        <v>0.1095660547939099</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>29</v>
@@ -4032,19 +4032,19 @@
         <v>26766</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>17243</v>
+        <v>18362</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>39712</v>
+        <v>39921</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.03219598144737762</v>
+        <v>0.03219598144737761</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0207414044476966</v>
+        <v>0.0220875969431376</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.04776869344707108</v>
+        <v>0.04802030272959013</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>83</v>
@@ -4053,19 +4053,19 @@
         <v>94824</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>73076</v>
+        <v>74327</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>117990</v>
+        <v>116922</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.05819542342214137</v>
+        <v>0.05819542342214136</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.04484805707097115</v>
+        <v>0.04561630192827829</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.07241327268716852</v>
+        <v>0.0717572724836491</v>
       </c>
     </row>
     <row r="51">
@@ -4157,19 +4157,19 @@
         <v>916089</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>860080</v>
+        <v>864568</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>971206</v>
+        <v>974442</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2596337738213987</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2437598947117518</v>
+        <v>0.2450318233298069</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2752547048936717</v>
+        <v>0.2761718992263952</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>1743</v>
@@ -4178,19 +4178,19 @@
         <v>1099948</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1054164</v>
+        <v>1055706</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>1149122</v>
+        <v>1153713</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2953406504566055</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.2830476325452499</v>
+        <v>0.28346147909583</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.3085441238636218</v>
+        <v>0.3097769097432232</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>2737</v>
@@ -4199,19 +4199,19 @@
         <v>2016037</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1942847</v>
+        <v>1947560</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>2092344</v>
+        <v>2089709</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.2779695516955311</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2678780874257577</v>
+        <v>0.2685279753154809</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2884907046536124</v>
+        <v>0.2881273984820615</v>
       </c>
     </row>
     <row r="53">
@@ -4228,19 +4228,19 @@
         <v>1129153</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1071633</v>
+        <v>1068184</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1188115</v>
+        <v>1190440</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.3200192243438889</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.3037172001221254</v>
+        <v>0.3027396497378378</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.3367298959626191</v>
+        <v>0.3373888610740842</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>1940</v>
@@ -4249,19 +4249,19 @@
         <v>1330663</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>1278881</v>
+        <v>1282646</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>1386834</v>
+        <v>1388509</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.3572885403051387</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.3433851012568202</v>
+        <v>0.3443958133024838</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.3723708313212833</v>
+        <v>0.3728206530981555</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>3058</v>
@@ -4270,19 +4270,19 @@
         <v>2459816</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>2379238</v>
+        <v>2379193</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>2537879</v>
+        <v>2533834</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.3391573277957192</v>
+        <v>0.3391573277957193</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.3280473253799153</v>
+        <v>0.3280411736627454</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.3499206542047343</v>
+        <v>0.3493628857018852</v>
       </c>
     </row>
     <row r="54">
@@ -4299,19 +4299,19 @@
         <v>1148391</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1085940</v>
+        <v>1079971</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1213217</v>
+        <v>1216084</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.325471533224393</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.307771948338581</v>
+        <v>0.3060802988592747</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3438442034465036</v>
+        <v>0.3446569164018746</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1392</v>
@@ -4320,19 +4320,19 @@
         <v>1062408</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1011696</v>
+        <v>1008327</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1113125</v>
+        <v>1112775</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2852611745726528</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2716446122633556</v>
+        <v>0.2707399743784334</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2988786812713543</v>
+        <v>0.2987848170749672</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>2382</v>
@@ -4341,19 +4341,19 @@
         <v>2210799</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2131440</v>
+        <v>2122391</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2297510</v>
+        <v>2295014</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.3048231799111114</v>
+        <v>0.3048231799111115</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2938811616638131</v>
+        <v>0.2926335566300405</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3167787132504251</v>
+        <v>0.3164346645499578</v>
       </c>
     </row>
     <row r="55">
@@ -4370,19 +4370,19 @@
         <v>246721</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>213267</v>
+        <v>214351</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>290072</v>
+        <v>287591</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.06992448198130206</v>
+        <v>0.06992448198130208</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.06044309034121961</v>
+        <v>0.06075046889954769</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.08221090670817305</v>
+        <v>0.08150772361184602</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>214</v>
@@ -4391,19 +4391,19 @@
         <v>180400</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>156605</v>
+        <v>156267</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>210341</v>
+        <v>209165</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.04843804332619727</v>
+        <v>0.04843804332619726</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.04204921279646479</v>
+        <v>0.04195826456958254</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.05647737176657187</v>
+        <v>0.05616169767781681</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>412</v>
@@ -4412,19 +4412,19 @@
         <v>427120</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>383579</v>
+        <v>383659</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>476666</v>
+        <v>472560</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.05889101718091899</v>
+        <v>0.05889101718091901</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.05288751866950663</v>
+        <v>0.05289856561953755</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.06572233205536662</v>
+        <v>0.06515618526834528</v>
       </c>
     </row>
     <row r="56">
@@ -4441,19 +4441,19 @@
         <v>88037</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>66930</v>
+        <v>66516</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>115642</v>
+        <v>112765</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.02495098662901734</v>
+        <v>0.02495098662901733</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.0189689664542269</v>
+        <v>0.01885169971225846</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.03277461169015598</v>
+        <v>0.03195945201876416</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>59</v>
@@ -4462,19 +4462,19 @@
         <v>50918</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>37881</v>
+        <v>39626</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>68113</v>
+        <v>69008</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.01367159133940578</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.01017108363908563</v>
+        <v>0.01063977367441938</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01828875277586612</v>
+        <v>0.01852895651630613</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>130</v>
@@ -4483,19 +4483,19 @@
         <v>138954</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>112401</v>
+        <v>115052</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>166188</v>
+        <v>166811</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.01915892341671909</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.01549776097791962</v>
+        <v>0.01586326842331608</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.02291391310482664</v>
+        <v>0.02299970073225559</v>
       </c>
     </row>
     <row r="57">
